--- a/fuentes/contenidos/grado06/guion13/ESCALETA_MA_06_13_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion13/ESCALETA_MA_06_13_CO.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="1170"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$P$1:$P$52</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="162">
   <si>
     <t>Asignatura</t>
   </si>
@@ -127,9 +124,6 @@
     <t xml:space="preserve">ACTIVIDAD </t>
   </si>
   <si>
-    <t>M10B</t>
-  </si>
-  <si>
     <t>Si</t>
   </si>
   <si>
@@ -163,39 +157,18 @@
     <t>MT</t>
   </si>
   <si>
-    <t>F7B</t>
-  </si>
-  <si>
     <t>M1B</t>
   </si>
   <si>
     <t>Recurso M1B-01</t>
   </si>
   <si>
-    <t>M8A</t>
-  </si>
-  <si>
-    <t>M2C</t>
-  </si>
-  <si>
-    <t>M11A</t>
-  </si>
-  <si>
     <t>Sí</t>
   </si>
   <si>
     <t>Recurso M101A-02</t>
   </si>
   <si>
-    <t>M4A</t>
-  </si>
-  <si>
-    <t>F13</t>
-  </si>
-  <si>
-    <t>MT_4_1</t>
-  </si>
-  <si>
     <t>M7A</t>
   </si>
   <si>
@@ -211,21 +184,12 @@
     <t>Recurso M1A-02</t>
   </si>
   <si>
-    <t>M6A</t>
-  </si>
-  <si>
-    <t>M102AB</t>
-  </si>
-  <si>
     <t>Fin de tema</t>
   </si>
   <si>
     <t>Mapa conceptual</t>
   </si>
   <si>
-    <t xml:space="preserve">MAPA CONCEPTUAL </t>
-  </si>
-  <si>
     <t>Evaluación</t>
   </si>
   <si>
@@ -235,312 +199,12 @@
     <t>M101AP</t>
   </si>
   <si>
-    <t>ASIGNATURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOCIALES </t>
-  </si>
-  <si>
-    <t>CIENCIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENGUAJE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPOLOGÍA: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPO MEDIA </t>
-  </si>
-  <si>
-    <t>SECUENCIA DE IMÁGENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIDEO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANIMACIÓN </t>
-  </si>
-  <si>
-    <t>TIPO DE MOTOR F</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>COMUNICACIÓN</t>
-  </si>
-  <si>
-    <t>F6B</t>
-  </si>
-  <si>
-    <t>MODELACIÓN</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>RESOLUCIÓN DE PROBLEMAS</t>
-  </si>
-  <si>
-    <t>EJERCITACIÓN</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>RAZONAMIENTO</t>
-  </si>
-  <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F10B</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F13B</t>
-  </si>
-  <si>
-    <t>TIPO DE MOTOR M</t>
-  </si>
-  <si>
-    <t>M1C</t>
-  </si>
-  <si>
-    <t>M1D</t>
-  </si>
-  <si>
-    <t>M2A</t>
-  </si>
-  <si>
     <t>M2B</t>
   </si>
   <si>
-    <t>M3A</t>
-  </si>
-  <si>
-    <t>M3B</t>
-  </si>
-  <si>
-    <t>M3B1</t>
-  </si>
-  <si>
-    <t>M5B</t>
-  </si>
-  <si>
-    <t>M5C</t>
-  </si>
-  <si>
-    <t>M5D</t>
-  </si>
-  <si>
-    <t>M6B</t>
-  </si>
-  <si>
-    <t>M9B</t>
-  </si>
-  <si>
-    <t>M9C</t>
-  </si>
-  <si>
-    <t>M10A</t>
-  </si>
-  <si>
-    <t>M12A</t>
-  </si>
-  <si>
-    <t>M12B</t>
-  </si>
-  <si>
-    <t>M12C</t>
-  </si>
-  <si>
-    <t>M12D</t>
-  </si>
-  <si>
-    <t>M13A</t>
-  </si>
-  <si>
-    <t>M13B</t>
-  </si>
-  <si>
-    <t>M14A</t>
-  </si>
-  <si>
-    <t>M15A</t>
-  </si>
-  <si>
-    <t>MT_1_1</t>
-  </si>
-  <si>
-    <t>MT_2_1</t>
-  </si>
-  <si>
-    <t>MT_3_1</t>
-  </si>
-  <si>
-    <t>MT_3_2</t>
-  </si>
-  <si>
-    <t>MT_3_3</t>
-  </si>
-  <si>
-    <t>MT_4_2</t>
-  </si>
-  <si>
-    <t>MT_5_1</t>
-  </si>
-  <si>
-    <t>MT_6_1</t>
-  </si>
-  <si>
-    <t>MT_6_2</t>
-  </si>
-  <si>
-    <t>MT_6_3</t>
-  </si>
-  <si>
-    <t>MT_9_1</t>
-  </si>
-  <si>
-    <t>MT_11_1</t>
-  </si>
-  <si>
-    <t>MT_12_1</t>
-  </si>
-  <si>
-    <t>MT_13_1</t>
-  </si>
-  <si>
-    <t>MT_14_1</t>
-  </si>
-  <si>
-    <t>MT_14_2</t>
-  </si>
-  <si>
-    <t>MT_16_1</t>
-  </si>
-  <si>
-    <t>MT_17_1</t>
-  </si>
-  <si>
-    <t>MT_19_1</t>
-  </si>
-  <si>
-    <t>MT_09_08_06</t>
-  </si>
-  <si>
-    <t>MT_09_08_08</t>
-  </si>
-  <si>
-    <t>MT_09_08_10</t>
-  </si>
-  <si>
-    <t>MT_09_12_03</t>
-  </si>
-  <si>
-    <t>MT_09_12_04</t>
-  </si>
-  <si>
-    <t>MT_10_09_04</t>
-  </si>
-  <si>
-    <t>MT_09_10_05a</t>
-  </si>
-  <si>
-    <t>MT_09_10_05b</t>
-  </si>
-  <si>
-    <t>MT_09_10_05d</t>
-  </si>
-  <si>
-    <t>MT_10_12_09</t>
-  </si>
-  <si>
-    <t>MT_09_01_03a</t>
-  </si>
-  <si>
-    <t>MT_10_01_03</t>
-  </si>
-  <si>
-    <t>MT_10_01_04</t>
-  </si>
-  <si>
-    <t>MT_10_02_09</t>
-  </si>
-  <si>
-    <t>MT_10_03_07</t>
-  </si>
-  <si>
-    <t>MT_10_03_10</t>
-  </si>
-  <si>
-    <t>MT_10_04_09</t>
-  </si>
-  <si>
-    <t>MT_10_04_10</t>
-  </si>
-  <si>
-    <t>MT_10_05_07</t>
-  </si>
-  <si>
-    <t>MT_10_05_08</t>
-  </si>
-  <si>
-    <t>MT_09_05_03</t>
-  </si>
-  <si>
-    <t>MT_09_05_04</t>
-  </si>
-  <si>
-    <t>MT_09_05_07</t>
-  </si>
-  <si>
-    <t>MT_09_05_09</t>
-  </si>
-  <si>
-    <t>MT_09_06_05a</t>
-  </si>
-  <si>
-    <t>MT_09_06_05b</t>
-  </si>
-  <si>
-    <t>MT_09_06_05c</t>
-  </si>
-  <si>
-    <t>MT_09_09_03</t>
-  </si>
-  <si>
-    <t>MT_09_07_05</t>
-  </si>
-  <si>
-    <t>MT_10_06_01</t>
-  </si>
-  <si>
-    <t>MT_10_06_04</t>
-  </si>
-  <si>
-    <t>MT_10_06_05</t>
-  </si>
-  <si>
-    <t>MT_10_06_07</t>
-  </si>
-  <si>
-    <t>MT_10_06_08</t>
-  </si>
-  <si>
-    <t>MT_10_06_09</t>
-  </si>
-  <si>
     <t>MA_06_13_CO</t>
   </si>
   <si>
@@ -590,9 +254,6 @@
   </si>
   <si>
     <t>Interactivo que muestra ejemplos del Sistema internacional de Unidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL LUGAR DE MAPA Y DE EVALUACIÓN </t>
   </si>
   <si>
     <t>Ordena unidades de longitud</t>
@@ -1035,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1110,114 +771,129 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,7 +955,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1314,7 +990,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1491,7 +1167,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1499,10 +1175,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W182"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,144 +1190,147 @@
     <col min="4" max="4" width="25.28515625" style="22" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" style="22" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" style="24" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="22" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" style="22" customWidth="1"/>
     <col min="10" max="10" width="62.28515625" style="24" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" style="22" customWidth="1"/>
     <col min="12" max="12" width="20.85546875" style="22" customWidth="1"/>
     <col min="13" max="14" width="8.85546875" style="22" customWidth="1"/>
-    <col min="15" max="15" width="78.7109375" style="22" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="22" hidden="1" customWidth="1"/>
-    <col min="17" max="21" width="14.42578125" style="50" customWidth="1"/>
+    <col min="15" max="15" width="78.7109375" style="22" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" style="22" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="33" customWidth="1"/>
+    <col min="19" max="19" width="34" style="51" customWidth="1"/>
+    <col min="20" max="20" width="54.85546875" style="51" customWidth="1"/>
+    <col min="21" max="21" width="31" style="33" customWidth="1"/>
     <col min="22" max="22" width="10.85546875" style="22"/>
     <col min="23" max="23" width="26.7109375" style="25" customWidth="1"/>
     <col min="24" max="16384" width="10.85546875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="29" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="28"/>
-    </row>
-    <row r="2" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="35"/>
+      <c r="W1" s="57"/>
+    </row>
+    <row r="2" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="62"/>
       <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="54"/>
-      <c r="W2" s="28"/>
-    </row>
-    <row r="3" spans="1:23" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="56"/>
+      <c r="W2" s="57"/>
+    </row>
+    <row r="3" spans="1:23" s="14" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="41" t="s">
-        <v>173</v>
+      <c r="G3" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="H3" s="13">
         <v>1</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="41" t="s">
-        <v>174</v>
+      <c r="J3" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="28" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="5"/>
@@ -1659,20 +1339,20 @@
       <c r="P3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="61">
+      <c r="Q3" s="38">
         <v>7</v>
       </c>
-      <c r="R3" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T3" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="U3" s="61" t="s">
-        <v>256</v>
+      <c r="R3" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W3" s="15"/>
     </row>
@@ -1681,202 +1361,202 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="42" t="s">
-        <v>175</v>
+      <c r="G4" s="41" t="s">
+        <v>64</v>
       </c>
       <c r="H4" s="13">
         <v>2</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="41" t="s">
-        <v>176</v>
+      <c r="J4" s="40" t="s">
+        <v>65</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="28" t="s">
         <v>25</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="61">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="38">
         <v>7</v>
       </c>
-      <c r="R4" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T4" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="U4" s="61" t="s">
-        <v>256</v>
+      <c r="R4" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W4" s="15"/>
     </row>
-    <row r="5" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="42" t="s">
-        <v>182</v>
+      <c r="G5" s="41" t="s">
+        <v>71</v>
       </c>
       <c r="H5" s="13">
         <v>3</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="41" t="s">
-        <v>183</v>
+      <c r="J5" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="61">
+      <c r="Q5" s="38">
         <v>6</v>
       </c>
-      <c r="R5" s="62" t="s">
+      <c r="R5" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="61" t="s">
+      <c r="T5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" s="61" t="s">
-        <v>37</v>
-      </c>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="42" t="s">
-        <v>184</v>
+      <c r="G6" s="41" t="s">
+        <v>73</v>
       </c>
       <c r="H6" s="13">
         <v>4</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="41" t="s">
-        <v>229</v>
+      <c r="J6" s="40" t="s">
+        <v>117</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="61">
+      <c r="Q6" s="38">
         <v>6</v>
       </c>
-      <c r="R6" s="62" t="s">
+      <c r="R6" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="61" t="s">
+      <c r="T6" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" s="61" t="s">
-        <v>37</v>
-      </c>
       <c r="W6" s="15"/>
     </row>
-    <row r="7" spans="1:23" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="20" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="43" t="s">
-        <v>186</v>
+      <c r="G7" s="42" t="s">
+        <v>75</v>
       </c>
       <c r="H7" s="13">
         <v>5</v>
       </c>
-      <c r="I7" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>187</v>
+      <c r="I7" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>76</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="28" t="s">
         <v>25</v>
       </c>
       <c r="M7" s="5" t="s">
@@ -1885,160 +1565,157 @@
       <c r="N7" s="5"/>
       <c r="O7" s="1"/>
       <c r="P7" s="18"/>
-      <c r="Q7" s="61">
+      <c r="Q7" s="38">
         <v>6</v>
       </c>
-      <c r="R7" s="62" t="s">
+      <c r="R7" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="61" t="s">
+      <c r="S7" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="T7" s="64" t="s">
+      <c r="T7" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="61" t="s">
+      <c r="U7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="W7" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:23" s="20" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="43" t="s">
-        <v>190</v>
+      <c r="G8" s="42" t="s">
+        <v>78</v>
       </c>
       <c r="H8" s="13">
         <v>6</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="48" t="s">
-        <v>191</v>
+      <c r="J8" s="42" t="s">
+        <v>79</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="18"/>
-      <c r="Q8" s="61">
+      <c r="Q8" s="38">
         <v>6</v>
       </c>
-      <c r="R8" s="62" t="s">
+      <c r="R8" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="S8" s="61" t="s">
+      <c r="T8" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="U8" s="61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:23" s="20" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="16"/>
       <c r="E9" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="42" t="s">
-        <v>221</v>
+      <c r="G9" s="41" t="s">
+        <v>109</v>
       </c>
       <c r="H9" s="13">
         <v>7</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="48" t="s">
-        <v>230</v>
+      <c r="J9" s="42" t="s">
+        <v>118</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="18"/>
-      <c r="Q9" s="61">
+      <c r="Q9" s="38">
         <v>6</v>
       </c>
-      <c r="R9" s="62" t="s">
+      <c r="R9" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="61" t="s">
+      <c r="T9" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="U9" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="T9" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="U9" s="61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="42" t="s">
-        <v>177</v>
+      <c r="G10" s="41" t="s">
+        <v>66</v>
       </c>
       <c r="H10" s="13">
         <v>8</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="41" t="s">
-        <v>178</v>
+      <c r="J10" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M10" s="5"/>
@@ -2047,76 +1724,76 @@
       <c r="P10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="61">
+      <c r="Q10" s="38">
         <v>7</v>
       </c>
-      <c r="R10" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S10" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T10" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="U10" s="61" t="s">
-        <v>256</v>
+      <c r="R10" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="U10" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W10" s="15"/>
     </row>
-    <row r="11" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="42" t="s">
-        <v>198</v>
+      <c r="G11" s="41" t="s">
+        <v>86</v>
       </c>
       <c r="H11" s="13">
         <v>9</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="41" t="s">
-        <v>231</v>
+      <c r="J11" s="40" t="s">
+        <v>119</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="61">
+      <c r="Q11" s="38">
         <v>6</v>
       </c>
-      <c r="R11" s="62" t="s">
+      <c r="R11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="S11" s="61" t="s">
+      <c r="T11" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="U11" s="38" t="s">
         <v>36</v>
-      </c>
-      <c r="T11" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="U11" s="61" t="s">
-        <v>37</v>
       </c>
       <c r="W11" s="15"/>
     </row>
@@ -2125,220 +1802,220 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="42" t="s">
-        <v>189</v>
+      <c r="G12" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="H12" s="13">
         <v>10</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="41" t="s">
-        <v>179</v>
+      <c r="J12" s="40" t="s">
+        <v>68</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="61">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="38">
         <v>7</v>
       </c>
-      <c r="R12" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S12" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T12" s="63" t="s">
-        <v>257</v>
-      </c>
-      <c r="U12" s="61" t="s">
-        <v>256</v>
+      <c r="R12" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="U12" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W12" s="15"/>
     </row>
-    <row r="13" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="42" t="s">
-        <v>180</v>
+      <c r="G13" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="H13" s="13">
         <v>11</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="41" t="s">
-        <v>195</v>
+      <c r="J13" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="28" t="s">
         <v>25</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="61">
+      <c r="Q13" s="38">
         <v>7</v>
       </c>
-      <c r="R13" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S13" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T13" s="63" t="s">
-        <v>258</v>
-      </c>
-      <c r="U13" s="61" t="s">
-        <v>256</v>
+      <c r="R13" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="U13" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W13" s="15"/>
     </row>
-    <row r="14" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="42" t="s">
-        <v>199</v>
+      <c r="G14" s="41" t="s">
+        <v>87</v>
       </c>
       <c r="H14" s="13">
         <v>12</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="41" t="s">
-        <v>232</v>
+      <c r="J14" s="40" t="s">
+        <v>120</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="61">
+      <c r="Q14" s="38">
         <v>6</v>
       </c>
-      <c r="R14" s="62" t="s">
+      <c r="R14" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="61" t="s">
+      <c r="T14" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="U14" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="64" t="s">
-        <v>270</v>
-      </c>
-      <c r="U14" s="61" t="s">
-        <v>37</v>
-      </c>
       <c r="W14" s="15"/>
     </row>
-    <row r="15" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="42" t="s">
-        <v>223</v>
+      <c r="G15" s="41" t="s">
+        <v>111</v>
       </c>
       <c r="H15" s="13">
         <v>13</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="41" t="s">
-        <v>181</v>
+      <c r="J15" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="61">
+      <c r="Q15" s="38">
         <v>7</v>
       </c>
-      <c r="R15" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S15" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T15" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="U15" s="61" t="s">
-        <v>256</v>
+      <c r="R15" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="U15" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W15" s="15"/>
     </row>
@@ -2347,54 +2024,54 @@
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="42" t="s">
-        <v>192</v>
+      <c r="G16" s="41" t="s">
+        <v>80</v>
       </c>
       <c r="H16" s="13">
         <v>14</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="41" t="s">
-        <v>193</v>
+      <c r="J16" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="61">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="38">
         <v>7</v>
       </c>
-      <c r="R16" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S16" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T16" s="63" t="s">
-        <v>192</v>
-      </c>
-      <c r="U16" s="61" t="s">
-        <v>256</v>
+      <c r="R16" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T16" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="U16" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W16" s="15"/>
     </row>
@@ -2403,108 +2080,108 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="42" t="s">
-        <v>254</v>
+      <c r="G17" s="41" t="s">
+        <v>142</v>
       </c>
       <c r="H17" s="13">
         <v>15</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="41" t="s">
-        <v>194</v>
+      <c r="J17" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="61">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="38">
         <v>7</v>
       </c>
-      <c r="R17" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S17" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T17" s="63" t="s">
-        <v>260</v>
-      </c>
-      <c r="U17" s="61" t="s">
-        <v>256</v>
+      <c r="R17" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T17" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="U17" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W17" s="15"/>
     </row>
-    <row r="18" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="42" t="s">
-        <v>255</v>
+      <c r="G18" s="41" t="s">
+        <v>143</v>
       </c>
       <c r="H18" s="13">
         <v>16</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="41" t="s">
-        <v>196</v>
+      <c r="J18" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="61">
+      <c r="Q18" s="38">
         <v>7</v>
       </c>
-      <c r="R18" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S18" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T18" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="U18" s="61" t="s">
-        <v>256</v>
+      <c r="R18" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="U18" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W18" s="15"/>
     </row>
@@ -2513,56 +2190,56 @@
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="41" t="s">
-        <v>197</v>
+      <c r="G19" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="H19" s="13">
         <v>17</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="41" t="s">
-        <v>233</v>
+      <c r="J19" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q19" s="61">
+        <v>46</v>
+      </c>
+      <c r="Q19" s="38">
         <v>7</v>
       </c>
-      <c r="R19" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S19" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T19" s="63" t="s">
-        <v>262</v>
-      </c>
-      <c r="U19" s="61" t="s">
-        <v>256</v>
+      <c r="R19" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S19" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T19" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="U19" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W19" s="15"/>
     </row>
@@ -2571,56 +2248,56 @@
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="41" t="s">
-        <v>200</v>
+      <c r="G20" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="H20" s="13">
         <v>18</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="41" t="s">
-        <v>235</v>
+      <c r="J20" s="40" t="s">
+        <v>123</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="36" t="s">
+      <c r="L20" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="61">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="38">
         <v>6</v>
       </c>
-      <c r="R20" s="62" t="s">
+      <c r="R20" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="S20" s="61" t="s">
+      <c r="T20" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="U20" s="38" t="s">
         <v>36</v>
-      </c>
-      <c r="T20" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="U20" s="61" t="s">
-        <v>37</v>
       </c>
       <c r="W20" s="15"/>
     </row>
@@ -2629,56 +2306,56 @@
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="41" t="s">
-        <v>201</v>
+      <c r="G21" s="40" t="s">
+        <v>89</v>
       </c>
       <c r="H21" s="13">
         <v>19</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="41" t="s">
-        <v>234</v>
+      <c r="J21" s="40" t="s">
+        <v>122</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="61">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="38">
         <v>7</v>
       </c>
-      <c r="R21" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S21" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T21" s="63" t="s">
-        <v>263</v>
-      </c>
-      <c r="U21" s="61" t="s">
-        <v>256</v>
+      <c r="R21" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S21" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="U21" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W21" s="15"/>
     </row>
@@ -2687,88 +2364,88 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="41" t="s">
-        <v>202</v>
+      <c r="G22" s="40" t="s">
+        <v>90</v>
       </c>
       <c r="H22" s="13">
         <v>20</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="41" t="s">
-        <v>236</v>
+      <c r="J22" s="40" t="s">
+        <v>124</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q22" s="61">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="38">
         <v>7</v>
       </c>
-      <c r="R22" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S22" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T22" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="U22" s="61" t="s">
-        <v>256</v>
+      <c r="R22" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T22" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="U22" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W22" s="15"/>
     </row>
-    <row r="23" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="41" t="s">
-        <v>203</v>
+      <c r="G23" s="40" t="s">
+        <v>91</v>
       </c>
       <c r="H23" s="13">
         <v>21</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="41" t="s">
-        <v>237</v>
+      <c r="J23" s="40" t="s">
+        <v>125</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M23" s="5"/>
@@ -2777,56 +2454,56 @@
       <c r="P23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="61">
+      <c r="Q23" s="38">
         <v>7</v>
       </c>
-      <c r="R23" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S23" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T23" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="U23" s="61" t="s">
-        <v>256</v>
+      <c r="R23" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T23" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W23" s="15"/>
     </row>
-    <row r="24" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="41" t="s">
-        <v>205</v>
+      <c r="G24" s="40" t="s">
+        <v>93</v>
       </c>
       <c r="H24" s="13">
         <v>22</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="41" t="s">
-        <v>251</v>
+      <c r="J24" s="40" t="s">
+        <v>139</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M24" s="5"/>
@@ -2835,20 +2512,20 @@
       <c r="P24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="61">
+      <c r="Q24" s="38">
         <v>7</v>
       </c>
-      <c r="R24" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S24" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T24" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="U24" s="61" t="s">
-        <v>256</v>
+      <c r="R24" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T24" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="U24" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W24" s="15"/>
     </row>
@@ -2857,54 +2534,54 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="41" t="s">
-        <v>206</v>
+      <c r="G25" s="40" t="s">
+        <v>94</v>
       </c>
       <c r="H25" s="13">
         <v>23</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="41" t="s">
-        <v>252</v>
+      <c r="J25" s="40" t="s">
+        <v>140</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q25" s="61">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="38">
         <v>7</v>
       </c>
-      <c r="R25" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S25" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T25" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="U25" s="61" t="s">
-        <v>256</v>
+      <c r="R25" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S25" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T25" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="U25" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W25" s="15"/>
     </row>
@@ -2913,58 +2590,58 @@
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="E26" s="26"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="43" t="s">
-        <v>209</v>
+      <c r="F26" s="32"/>
+      <c r="G26" s="42" t="s">
+        <v>97</v>
       </c>
       <c r="H26" s="13">
         <v>24</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="49" t="s">
-        <v>210</v>
+      <c r="J26" s="44" t="s">
+        <v>98</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="36" t="s">
+      <c r="L26" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="P26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="38">
+        <v>6</v>
+      </c>
+      <c r="R26" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="61">
-        <v>6</v>
-      </c>
-      <c r="R26" s="62" t="s">
+      <c r="S26" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="S26" s="61" t="s">
+      <c r="T26" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="U26" s="38" t="s">
         <v>36</v>
-      </c>
-      <c r="T26" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="U26" s="61" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2972,88 +2649,88 @@
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="41" t="s">
-        <v>207</v>
+      <c r="G27" s="40" t="s">
+        <v>95</v>
       </c>
       <c r="H27" s="13">
         <v>25</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="41" t="s">
-        <v>253</v>
+      <c r="J27" s="40" t="s">
+        <v>141</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q27" s="61">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="38">
         <v>7</v>
       </c>
-      <c r="R27" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S27" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T27" s="63" t="s">
-        <v>266</v>
-      </c>
-      <c r="U27" s="61" t="s">
-        <v>256</v>
+      <c r="R27" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S27" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T27" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="U27" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W27" s="15"/>
     </row>
-    <row r="28" spans="1:23" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" s="20" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="E28" s="26"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="43" t="s">
-        <v>212</v>
+      <c r="F28" s="32"/>
+      <c r="G28" s="42" t="s">
+        <v>100</v>
       </c>
       <c r="H28" s="13">
         <v>26</v>
       </c>
-      <c r="I28" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="49" t="s">
-        <v>213</v>
+      <c r="I28" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="44" t="s">
+        <v>101</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="28" t="s">
         <v>25</v>
       </c>
       <c r="M28" s="5" t="s">
@@ -3061,84 +2738,84 @@
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="18" t="s">
-        <v>214</v>
+        <v>102</v>
       </c>
       <c r="P28" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" s="61">
+      <c r="Q28" s="38">
         <v>6</v>
       </c>
-      <c r="R28" s="62" t="s">
+      <c r="R28" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="S28" s="61" t="s">
+      <c r="S28" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="T28" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="U28" s="61" t="s">
+      <c r="T28" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="U28" s="38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="41" t="s">
-        <v>238</v>
+      <c r="G29" s="40" t="s">
+        <v>126</v>
       </c>
       <c r="H29" s="13">
         <v>27</v>
       </c>
-      <c r="I29" s="38" t="s">
+      <c r="I29" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="41" t="s">
-        <v>239</v>
+      <c r="J29" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="36" t="s">
+      <c r="L29" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>240</v>
+        <v>128</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="61">
+      <c r="Q29" s="38">
         <v>6</v>
       </c>
-      <c r="R29" s="62" t="s">
+      <c r="R29" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S29" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="S29" s="61" t="s">
+      <c r="T29" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="U29" s="38" t="s">
         <v>36</v>
-      </c>
-      <c r="T29" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="U29" s="61" t="s">
-        <v>37</v>
       </c>
       <c r="W29" s="15"/>
     </row>
@@ -3147,54 +2824,54 @@
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="41" t="s">
-        <v>204</v>
+      <c r="G30" s="40" t="s">
+        <v>92</v>
       </c>
       <c r="H30" s="13">
         <v>28</v>
       </c>
-      <c r="I30" s="38" t="s">
+      <c r="I30" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="41" t="s">
-        <v>241</v>
+      <c r="J30" s="40" t="s">
+        <v>129</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L30" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q30" s="61">
+        <v>46</v>
+      </c>
+      <c r="Q30" s="38">
         <v>7</v>
       </c>
-      <c r="R30" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S30" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T30" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="U30" s="61" t="s">
-        <v>256</v>
+      <c r="R30" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S30" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T30" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="U30" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W30" s="15"/>
     </row>
@@ -3203,56 +2880,56 @@
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7"/>
-      <c r="G31" s="41" t="s">
-        <v>208</v>
+      <c r="G31" s="40" t="s">
+        <v>96</v>
       </c>
       <c r="H31" s="13">
         <v>29</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J31" s="41" t="s">
-        <v>242</v>
+      <c r="J31" s="40" t="s">
+        <v>130</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L31" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q31" s="61">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="38">
         <v>7</v>
       </c>
-      <c r="R31" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S31" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T31" s="63" t="s">
-        <v>267</v>
-      </c>
-      <c r="U31" s="61" t="s">
-        <v>256</v>
+      <c r="R31" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S31" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T31" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="U31" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W31" s="15"/>
     </row>
@@ -3261,116 +2938,116 @@
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="41" t="s">
-        <v>216</v>
+      <c r="G32" s="40" t="s">
+        <v>104</v>
       </c>
       <c r="H32" s="13">
         <v>30</v>
       </c>
-      <c r="I32" s="38" t="s">
+      <c r="I32" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="41" t="s">
-        <v>243</v>
+      <c r="J32" s="40" t="s">
+        <v>131</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="L32" s="28" t="s">
         <v>25</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q32" s="61">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="38">
         <v>6</v>
       </c>
-      <c r="R32" s="62" t="s">
+      <c r="R32" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="S32" s="61" t="s">
+      <c r="S32" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="T32" s="64" t="s">
-        <v>273</v>
-      </c>
-      <c r="U32" s="61" t="s">
+      <c r="T32" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="U32" s="38" t="s">
         <v>30</v>
       </c>
       <c r="W32" s="15"/>
     </row>
-    <row r="33" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="41" t="s">
-        <v>217</v>
+      <c r="G33" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="H33" s="13">
         <v>31</v>
       </c>
-      <c r="I33" s="38" t="s">
+      <c r="I33" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="41" t="s">
-        <v>244</v>
+      <c r="J33" s="40" t="s">
+        <v>132</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L33" s="36" t="s">
+      <c r="L33" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q33" s="61">
+      <c r="Q33" s="38">
         <v>6</v>
       </c>
-      <c r="R33" s="62" t="s">
+      <c r="R33" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S33" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="S33" s="61" t="s">
+      <c r="T33" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="U33" s="38" t="s">
         <v>36</v>
-      </c>
-      <c r="T33" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="U33" s="61" t="s">
-        <v>37</v>
       </c>
       <c r="W33" s="15"/>
     </row>
@@ -3379,56 +3056,56 @@
         <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" s="7"/>
-      <c r="G34" s="41" t="s">
-        <v>218</v>
+      <c r="G34" s="40" t="s">
+        <v>106</v>
       </c>
       <c r="H34" s="13">
         <v>32</v>
       </c>
-      <c r="I34" s="38" t="s">
+      <c r="I34" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J34" s="41" t="s">
-        <v>246</v>
+      <c r="J34" s="40" t="s">
+        <v>134</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L34" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q34" s="61">
+        <v>46</v>
+      </c>
+      <c r="Q34" s="38">
         <v>7</v>
       </c>
-      <c r="R34" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S34" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T34" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="U34" s="61" t="s">
-        <v>256</v>
+      <c r="R34" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S34" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T34" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="U34" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W34" s="15"/>
     </row>
@@ -3437,54 +3114,54 @@
         <v>22</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="41" t="s">
-        <v>219</v>
+      <c r="G35" s="40" t="s">
+        <v>107</v>
       </c>
       <c r="H35" s="13">
         <v>33</v>
       </c>
-      <c r="I35" s="38" t="s">
+      <c r="I35" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J35" s="41" t="s">
-        <v>247</v>
+      <c r="J35" s="40" t="s">
+        <v>135</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L35" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q35" s="61">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="38">
         <v>7</v>
       </c>
-      <c r="R35" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="S35" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="T35" s="63" t="s">
-        <v>269</v>
-      </c>
-      <c r="U35" s="61" t="s">
-        <v>256</v>
+      <c r="R35" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S35" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T35" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="U35" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="W35" s="15"/>
     </row>
@@ -3493,43 +3170,43 @@
         <v>22</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="41" t="s">
-        <v>64</v>
+      <c r="G36" s="40" t="s">
+        <v>54</v>
       </c>
       <c r="H36" s="13">
         <v>34</v>
       </c>
-      <c r="I36" s="38" t="s">
+      <c r="I36" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J36" s="41" t="s">
-        <v>248</v>
+      <c r="J36" s="40" t="s">
+        <v>136</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L36" s="36"/>
+        <v>42</v>
+      </c>
+      <c r="L36" s="28"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="58"/>
-      <c r="U36" s="55"/>
+        <v>46</v>
+      </c>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="36"/>
       <c r="W36" s="15"/>
     </row>
     <row r="37" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3537,56 +3214,56 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="41" t="s">
-        <v>66</v>
+      <c r="G37" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="H37" s="13">
         <v>35</v>
       </c>
-      <c r="I37" s="38" t="s">
+      <c r="I37" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="41" t="s">
-        <v>249</v>
+      <c r="J37" s="40" t="s">
+        <v>137</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L37" s="36" t="s">
+      <c r="L37" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O37" s="7"/>
       <c r="P37" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q37" s="61">
+        <v>46</v>
+      </c>
+      <c r="Q37" s="38">
         <v>6</v>
       </c>
-      <c r="R37" s="62" t="s">
+      <c r="R37" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S37" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="S37" s="61" t="s">
+      <c r="T37" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="U37" s="38" t="s">
         <v>36</v>
-      </c>
-      <c r="T37" s="64" t="s">
-        <v>270</v>
-      </c>
-      <c r="U37" s="61" t="s">
-        <v>37</v>
       </c>
       <c r="W37" s="15"/>
     </row>
@@ -3595,973 +3272,378 @@
         <v>22</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="44" t="s">
-        <v>67</v>
+      <c r="G38" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="H38" s="13">
         <v>36</v>
       </c>
-      <c r="I38" s="38" t="s">
+      <c r="I38" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J38" s="41" t="s">
-        <v>250</v>
+      <c r="J38" s="40" t="s">
+        <v>138</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L38" s="36" t="s">
+      <c r="L38" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q38" s="61">
+        <v>46</v>
+      </c>
+      <c r="Q38" s="38">
         <v>6</v>
       </c>
-      <c r="R38" s="62" t="s">
+      <c r="R38" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S38" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="S38" s="61" t="s">
+      <c r="T38" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="U38" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="T38" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="U38" s="61" t="s">
-        <v>37</v>
-      </c>
       <c r="W38" s="15"/>
     </row>
-    <row r="39" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="9"/>
       <c r="E39" s="8"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="44"/>
+      <c r="G39" s="43"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="41"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="40"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="36"/>
+      <c r="L39" s="28"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="56"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="37"/>
       <c r="W39" s="15"/>
     </row>
-    <row r="40" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="9"/>
       <c r="E40" s="8"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="44"/>
+      <c r="G40" s="43"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="41"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="40"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="36"/>
+      <c r="L40" s="28"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="56"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="37"/>
       <c r="W40" s="15"/>
     </row>
-    <row r="41" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
       <c r="D41" s="9"/>
       <c r="E41" s="8"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="44"/>
+      <c r="G41" s="43"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="41"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="40"/>
       <c r="K41" s="6"/>
-      <c r="L41" s="36"/>
+      <c r="L41" s="28"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="56"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="56"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="37"/>
       <c r="W41" s="15"/>
     </row>
-    <row r="42" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="9"/>
       <c r="E42" s="8"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="41"/>
+      <c r="G42" s="40"/>
       <c r="H42" s="13"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="41"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="40"/>
       <c r="K42" s="6"/>
-      <c r="L42" s="36"/>
+      <c r="L42" s="28"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="58"/>
-      <c r="U42" s="55"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="36"/>
       <c r="W42" s="15"/>
     </row>
-    <row r="43" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
       <c r="D43" s="9"/>
       <c r="E43" s="8"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="40"/>
       <c r="H43" s="13"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="41"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="40"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="36"/>
+      <c r="L43" s="28"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="55"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="55"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="36"/>
       <c r="W43" s="15"/>
     </row>
-    <row r="44" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
       <c r="D44" s="9"/>
       <c r="E44" s="8"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="41"/>
+      <c r="G44" s="40"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="41"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="40"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="36"/>
+      <c r="L44" s="28"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="55"/>
-      <c r="T44" s="58"/>
-      <c r="U44" s="55"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="36"/>
       <c r="W44" s="15"/>
     </row>
-    <row r="45" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
       <c r="D45" s="9"/>
       <c r="E45" s="8"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="42"/>
+      <c r="G45" s="41"/>
       <c r="H45" s="13"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="41"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="40"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="36"/>
+      <c r="L45" s="28"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
-      <c r="Q45" s="55"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="55"/>
-      <c r="T45" s="60"/>
-      <c r="U45" s="55"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="36"/>
       <c r="W45" s="15"/>
     </row>
-    <row r="46" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
       <c r="D46" s="9"/>
       <c r="E46" s="8"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="42"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="13"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="41"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="40"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="36"/>
+      <c r="L46" s="28"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="58"/>
-      <c r="U46" s="55"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="53"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="36"/>
       <c r="W46" s="15"/>
     </row>
-    <row r="47" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
       <c r="D47" s="9"/>
       <c r="E47" s="8"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="42"/>
+      <c r="G47" s="41"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="42"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="41"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="36"/>
+      <c r="L47" s="28"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
-      <c r="Q47" s="55"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="55"/>
-      <c r="T47" s="58"/>
-      <c r="U47" s="55"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="36"/>
       <c r="W47" s="15"/>
     </row>
-    <row r="48" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="8"/>
       <c r="C48" s="10"/>
       <c r="D48" s="9"/>
       <c r="E48" s="8"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="42"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="42"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="41"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="36"/>
+      <c r="L48" s="28"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="55"/>
-      <c r="T48" s="60"/>
-      <c r="U48" s="55"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="49"/>
+      <c r="U48" s="36"/>
       <c r="W48" s="15"/>
     </row>
-    <row r="49" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="8"/>
       <c r="C49" s="10"/>
       <c r="D49" s="9"/>
       <c r="E49" s="8"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="42"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="42"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="41"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="36"/>
+      <c r="L49" s="28"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="11"/>
       <c r="P49" s="12"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="60"/>
-      <c r="U49" s="55"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="49"/>
+      <c r="U49" s="36"/>
       <c r="W49" s="15"/>
     </row>
-    <row r="50" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="8"/>
       <c r="C50" s="10"/>
       <c r="D50" s="9"/>
       <c r="E50" s="8"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="42"/>
+      <c r="G50" s="41"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="42"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="41"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="36"/>
+      <c r="L50" s="28"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="11"/>
       <c r="P50" s="12"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="52"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="60"/>
-      <c r="U50" s="55"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="49"/>
+      <c r="U50" s="36"/>
       <c r="W50" s="15"/>
     </row>
-    <row r="51" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="21"/>
       <c r="J51" s="21"/>
       <c r="K51" s="22"/>
       <c r="Q51" s="23"/>
       <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
       <c r="U51" s="23"/>
       <c r="W51" s="23"/>
     </row>
-    <row r="52" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>72</v>
-      </c>
+    <row r="52" spans="1:23" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="21"/>
       <c r="J52" s="21"/>
-      <c r="K52" s="22" t="s">
-        <v>65</v>
-      </c>
+      <c r="K52" s="22"/>
       <c r="Q52" s="23"/>
       <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="50"/>
       <c r="U52" s="23"/>
       <c r="W52" s="23"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J54" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J91" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L91" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="22" t="s">
-        <v>170</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="P1:P52">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Si"/>
+        <filter val="Sí"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="21">
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>

--- a/fuentes/contenidos/grado06/guion13/ESCALETA_MA_06_13_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion13/ESCALETA_MA_06_13_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado06\guion13\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="1170"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="162">
   <si>
     <t>Asignatura</t>
   </si>
@@ -696,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -850,6 +855,39 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -870,30 +908,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1167,7 +1181,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1178,11 +1192,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="22" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="22" customWidth="1"/>
@@ -1197,7 +1211,7 @@
     <col min="11" max="11" width="16.5703125" style="22" customWidth="1"/>
     <col min="12" max="12" width="20.85546875" style="22" customWidth="1"/>
     <col min="13" max="14" width="8.85546875" style="22" customWidth="1"/>
-    <col min="15" max="15" width="78.7109375" style="22" customWidth="1"/>
+    <col min="15" max="15" width="44.42578125" style="22" customWidth="1"/>
     <col min="16" max="16" width="17.28515625" style="22" customWidth="1"/>
     <col min="17" max="18" width="14.42578125" style="33" customWidth="1"/>
     <col min="19" max="19" width="34" style="51" customWidth="1"/>
@@ -1208,99 +1222,99 @@
     <col min="24" max="16384" width="10.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="59" t="s">
+      <c r="N1" s="69"/>
+      <c r="O1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="U1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="57"/>
-    </row>
-    <row r="2" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="62"/>
+      <c r="W1" s="68"/>
+    </row>
+    <row r="2" spans="1:23" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="56"/>
-      <c r="W2" s="57"/>
-    </row>
-    <row r="3" spans="1:23" s="14" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="67"/>
+      <c r="W2" s="68"/>
+    </row>
+    <row r="3" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1356,7 +1370,7 @@
       </c>
       <c r="W3" s="15"/>
     </row>
-    <row r="4" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1412,7 +1426,7 @@
       </c>
       <c r="W4" s="15"/>
     </row>
-    <row r="5" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1468,7 +1482,7 @@
       </c>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1526,7 +1540,7 @@
       </c>
       <c r="W6" s="15"/>
     </row>
-    <row r="7" spans="1:23" s="20" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1581,7 +1595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="20" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1636,11 +1650,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="20" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="16"/>
+    <row r="9" spans="1:23" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="E9" s="27" t="s">
         <v>39</v>
       </c>
@@ -1685,7 +1707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1741,7 +1763,7 @@
       </c>
       <c r="W10" s="15"/>
     </row>
-    <row r="11" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1797,7 +1819,7 @@
       </c>
       <c r="W11" s="15"/>
     </row>
-    <row r="12" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1853,7 +1875,7 @@
       </c>
       <c r="W12" s="15"/>
     </row>
-    <row r="13" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1907,7 +1929,7 @@
       </c>
       <c r="W13" s="15"/>
     </row>
-    <row r="14" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1963,7 +1985,7 @@
       </c>
       <c r="W14" s="15"/>
     </row>
-    <row r="15" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -2019,7 +2041,7 @@
       </c>
       <c r="W15" s="15"/>
     </row>
-    <row r="16" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2075,7 +2097,7 @@
       </c>
       <c r="W16" s="15"/>
     </row>
-    <row r="17" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -2185,7 +2207,7 @@
       </c>
       <c r="W18" s="15"/>
     </row>
-    <row r="19" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -2243,7 +2265,7 @@
       </c>
       <c r="W19" s="15"/>
     </row>
-    <row r="20" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2301,7 +2323,7 @@
       </c>
       <c r="W20" s="15"/>
     </row>
-    <row r="21" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -2359,7 +2381,7 @@
       </c>
       <c r="W21" s="15"/>
     </row>
-    <row r="22" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -2415,7 +2437,7 @@
       </c>
       <c r="W22" s="15"/>
     </row>
-    <row r="23" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2471,7 +2493,7 @@
       </c>
       <c r="W23" s="15"/>
     </row>
-    <row r="24" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2529,7 +2551,7 @@
       </c>
       <c r="W24" s="15"/>
     </row>
-    <row r="25" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -2585,7 +2607,7 @@
       </c>
       <c r="W25" s="15"/>
     </row>
-    <row r="26" spans="1:23" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -2644,7 +2666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -2700,7 +2722,7 @@
       </c>
       <c r="W27" s="15"/>
     </row>
-    <row r="28" spans="1:23" s="20" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -2759,7 +2781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -2819,7 +2841,7 @@
       </c>
       <c r="W29" s="15"/>
     </row>
-    <row r="30" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -2875,7 +2897,7 @@
       </c>
       <c r="W30" s="15"/>
     </row>
-    <row r="31" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
@@ -2933,7 +2955,7 @@
       </c>
       <c r="W31" s="15"/>
     </row>
-    <row r="32" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
@@ -2991,7 +3013,7 @@
       </c>
       <c r="W32" s="15"/>
     </row>
-    <row r="33" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
@@ -3051,7 +3073,7 @@
       </c>
       <c r="W33" s="15"/>
     </row>
-    <row r="34" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
@@ -3109,7 +3131,7 @@
       </c>
       <c r="W34" s="15"/>
     </row>
-    <row r="35" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -3165,7 +3187,7 @@
       </c>
       <c r="W35" s="15"/>
     </row>
-    <row r="36" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
@@ -3209,7 +3231,7 @@
       <c r="U36" s="36"/>
       <c r="W36" s="15"/>
     </row>
-    <row r="37" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -3267,7 +3289,7 @@
       </c>
       <c r="W37" s="15"/>
     </row>
-    <row r="38" spans="1:23" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
@@ -3613,7 +3635,7 @@
       <c r="U50" s="36"/>
       <c r="W50" s="15"/>
     </row>
-    <row r="51" spans="1:23" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="G51" s="21"/>
       <c r="J51" s="21"/>
       <c r="K51" s="22"/>
@@ -3624,7 +3646,7 @@
       <c r="U51" s="23"/>
       <c r="W51" s="23"/>
     </row>
-    <row r="52" spans="1:23" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="G52" s="21"/>
       <c r="J52" s="21"/>
       <c r="K52" s="22"/>
@@ -3645,6 +3667,15 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="21">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -3657,15 +3688,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W6 W27 W29:W50 W10:W25">

--- a/fuentes/contenidos/grado06/guion13/ESCALETA_MA_06_13_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion13/ESCALETA_MA_06_13_CO.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado06\guion13\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="1170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,8 +12,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$P$1:$P$52</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="161">
   <si>
     <t>Asignatura</t>
   </si>
@@ -258,18 +256,12 @@
     <t>El Sistema Internacional de Unidades</t>
   </si>
   <si>
-    <t>Interactivo que muestra ejemplos del Sistema internacional de Unidades</t>
-  </si>
-  <si>
     <t>Ordena unidades de longitud</t>
   </si>
   <si>
     <t>Identifica la unidad principal de cada magnitud</t>
   </si>
   <si>
-    <t>Actividad para reconocer la unidad principal de las magnitudes del sistema Internaciona de Unidades (SI)</t>
-  </si>
-  <si>
     <t>Convierte unidades de superficie</t>
   </si>
   <si>
@@ -279,9 +271,6 @@
     <t>Ejercicios para practicar la ordenación de medidas de superficie</t>
   </si>
   <si>
-    <t>Ejercicios para operar con medidas de longitud</t>
-  </si>
-  <si>
     <t>Ejercicios para operar con medidas de superficie</t>
   </si>
   <si>
@@ -357,15 +346,9 @@
     <t>El proceso de la medición</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: El sistema iInternacional de Unidades (SI)</t>
-  </si>
-  <si>
     <t>Las unidades de longitud</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje:Las unidades de longitud</t>
-  </si>
-  <si>
     <t>Las unidades de superficie</t>
   </si>
   <si>
@@ -514,6 +497,18 @@
   </si>
   <si>
     <t>Recurso F10-01</t>
+  </si>
+  <si>
+    <t>Interactivo que muestra ejemplos del Sistema internacional de unidades</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer la unidad en las magnitudes del sistema Internaciona de Unidades (SI)</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El sistema Internacional de Unidades (SI)</t>
+  </si>
+  <si>
+    <t>Ejercicios de operaciones con medidas de longitud</t>
   </si>
 </sst>
 </file>
@@ -864,6 +859,27 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -887,27 +903,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,7 +1176,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1189,132 +1184,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="83" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="62.28515625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" style="22" customWidth="1"/>
-    <col min="13" max="14" width="8.85546875" style="22" customWidth="1"/>
-    <col min="15" max="15" width="44.42578125" style="22" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="22" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="22" customWidth="1"/>
+    <col min="7" max="7" width="56" style="24" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="93" style="24" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="22" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" style="22" customWidth="1"/>
+    <col min="13" max="14" width="8.83203125" style="22" customWidth="1"/>
+    <col min="15" max="15" width="44.5" style="22" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" style="22" customWidth="1"/>
+    <col min="17" max="18" width="14.5" style="33" customWidth="1"/>
     <col min="19" max="19" width="34" style="51" customWidth="1"/>
-    <col min="20" max="20" width="54.85546875" style="51" customWidth="1"/>
+    <col min="20" max="20" width="54.83203125" style="51" customWidth="1"/>
     <col min="21" max="21" width="31" style="33" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" style="22"/>
-    <col min="23" max="23" width="26.7109375" style="25" customWidth="1"/>
-    <col min="24" max="16384" width="10.85546875" style="22"/>
+    <col min="22" max="22" width="10.83203125" style="22"/>
+    <col min="23" max="23" width="26.6640625" style="25" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="70" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="P1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="72" t="s">
+      <c r="S1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="T1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="U1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="68"/>
-    </row>
-    <row r="2" spans="1:23" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="58"/>
+      <c r="W1" s="60"/>
+    </row>
+    <row r="2" spans="1:23" s="14" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="65"/>
       <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="67"/>
-      <c r="W2" s="68"/>
-    </row>
-    <row r="3" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="59"/>
+      <c r="W2" s="60"/>
+    </row>
+    <row r="3" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1325,7 +1320,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="13"/>
@@ -1366,11 +1361,11 @@
         <v>62</v>
       </c>
       <c r="U3" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W3" s="15"/>
     </row>
-    <row r="4" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1381,7 +1376,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="7"/>
@@ -1422,11 +1417,11 @@
         <v>64</v>
       </c>
       <c r="U4" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W4" s="15"/>
     </row>
-    <row r="5" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1437,7 +1432,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="7"/>
@@ -1482,7 +1477,7 @@
       </c>
       <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1493,7 +1488,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>39</v>
@@ -1509,7 +1504,7 @@
         <v>31</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>24</v>
@@ -1540,7 +1535,7 @@
       </c>
       <c r="W6" s="15"/>
     </row>
-    <row r="7" spans="1:23" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="20" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1565,7 +1560,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="42" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>24</v>
@@ -1595,7 +1590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="20" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1611,7 +1606,7 @@
       <c r="E8" s="26"/>
       <c r="F8" s="7"/>
       <c r="G8" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="13">
         <v>6</v>
@@ -1620,7 +1615,7 @@
         <v>31</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>24</v>
@@ -1650,7 +1645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="20" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="55" t="s">
         <v>22</v>
       </c>
@@ -1668,7 +1663,7 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="41" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="H9" s="13">
         <v>7</v>
@@ -1677,7 +1672,7 @@
         <v>31</v>
       </c>
       <c r="J9" s="42" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>42</v>
@@ -1707,7 +1702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1718,7 +1713,7 @@
         <v>61</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="7"/>
@@ -1759,11 +1754,11 @@
         <v>66</v>
       </c>
       <c r="U10" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W10" s="15"/>
     </row>
-    <row r="11" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1774,12 +1769,12 @@
         <v>61</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="7"/>
       <c r="G11" s="41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H11" s="13">
         <v>9</v>
@@ -1788,7 +1783,7 @@
         <v>31</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>24</v>
@@ -1812,14 +1807,14 @@
         <v>35</v>
       </c>
       <c r="T11" s="46" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="U11" s="38" t="s">
         <v>36</v>
       </c>
       <c r="W11" s="15"/>
     </row>
-    <row r="12" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1830,12 +1825,12 @@
         <v>61</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="7"/>
       <c r="G12" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="13">
         <v>10</v>
@@ -1868,14 +1863,14 @@
         <v>61</v>
       </c>
       <c r="T12" s="45" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="U12" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W12" s="15"/>
     </row>
-    <row r="13" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1886,7 +1881,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="7"/>
@@ -1900,7 +1895,7 @@
         <v>23</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>42</v>
@@ -1922,14 +1917,14 @@
         <v>61</v>
       </c>
       <c r="T13" s="45" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="U13" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W13" s="15"/>
     </row>
-    <row r="14" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1940,12 +1935,12 @@
         <v>61</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="7"/>
       <c r="G14" s="41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H14" s="13">
         <v>12</v>
@@ -1954,7 +1949,7 @@
         <v>31</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>24</v>
@@ -1978,14 +1973,14 @@
         <v>35</v>
       </c>
       <c r="T14" s="46" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="U14" s="38" t="s">
         <v>36</v>
       </c>
       <c r="W14" s="15"/>
     </row>
-    <row r="15" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1996,14 +1991,14 @@
         <v>61</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="41" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="H15" s="13">
         <v>13</v>
@@ -2034,14 +2029,14 @@
         <v>61</v>
       </c>
       <c r="T15" s="45" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="U15" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W15" s="15"/>
     </row>
-    <row r="16" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2052,12 +2047,12 @@
         <v>61</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="7"/>
       <c r="G16" s="41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H16" s="13">
         <v>14</v>
@@ -2066,7 +2061,7 @@
         <v>31</v>
       </c>
       <c r="J16" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>42</v>
@@ -2090,14 +2085,14 @@
         <v>61</v>
       </c>
       <c r="T16" s="45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U16" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W16" s="15"/>
     </row>
-    <row r="17" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -2108,12 +2103,12 @@
         <v>61</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="7"/>
       <c r="G17" s="41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H17" s="13">
         <v>15</v>
@@ -2122,7 +2117,7 @@
         <v>31</v>
       </c>
       <c r="J17" s="40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>42</v>
@@ -2146,14 +2141,14 @@
         <v>61</v>
       </c>
       <c r="T17" s="45" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U17" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W17" s="15"/>
     </row>
-    <row r="18" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" s="14" customFormat="1" ht="15" hidden="1">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -2164,12 +2159,12 @@
         <v>61</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="7"/>
       <c r="G18" s="41" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H18" s="13">
         <v>16</v>
@@ -2178,7 +2173,7 @@
         <v>31</v>
       </c>
       <c r="J18" s="40" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>42</v>
@@ -2200,14 +2195,14 @@
         <v>61</v>
       </c>
       <c r="T18" s="45" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="U18" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W18" s="15"/>
     </row>
-    <row r="19" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -2218,14 +2213,14 @@
         <v>61</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H19" s="13">
         <v>17</v>
@@ -2234,7 +2229,7 @@
         <v>31</v>
       </c>
       <c r="J19" s="40" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>42</v>
@@ -2258,14 +2253,14 @@
         <v>61</v>
       </c>
       <c r="T19" s="45" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="U19" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W19" s="15"/>
     </row>
-    <row r="20" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2276,12 +2271,12 @@
         <v>61</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="7"/>
       <c r="G20" s="40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H20" s="13">
         <v>18</v>
@@ -2290,7 +2285,7 @@
         <v>31</v>
       </c>
       <c r="J20" s="40" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>24</v>
@@ -2323,7 +2318,7 @@
       </c>
       <c r="W20" s="15"/>
     </row>
-    <row r="21" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -2334,14 +2329,14 @@
         <v>61</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E21" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H21" s="13">
         <v>19</v>
@@ -2350,7 +2345,7 @@
         <v>31</v>
       </c>
       <c r="J21" s="40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>42</v>
@@ -2374,14 +2369,14 @@
         <v>61</v>
       </c>
       <c r="T21" s="45" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U21" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W21" s="15"/>
     </row>
-    <row r="22" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -2392,12 +2387,12 @@
         <v>61</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="7"/>
       <c r="G22" s="40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H22" s="13">
         <v>20</v>
@@ -2406,7 +2401,7 @@
         <v>31</v>
       </c>
       <c r="J22" s="40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>42</v>
@@ -2430,14 +2425,14 @@
         <v>61</v>
       </c>
       <c r="T22" s="45" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="U22" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W22" s="15"/>
     </row>
-    <row r="23" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2448,12 +2443,12 @@
         <v>61</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="7"/>
       <c r="G23" s="40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H23" s="13">
         <v>21</v>
@@ -2462,7 +2457,7 @@
         <v>31</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>42</v>
@@ -2486,14 +2481,14 @@
         <v>61</v>
       </c>
       <c r="T23" s="45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="U23" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W23" s="15"/>
     </row>
-    <row r="24" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2504,14 +2499,14 @@
         <v>61</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H24" s="13">
         <v>22</v>
@@ -2520,7 +2515,7 @@
         <v>31</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>42</v>
@@ -2544,14 +2539,14 @@
         <v>61</v>
       </c>
       <c r="T24" s="45" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="U24" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W24" s="15"/>
     </row>
-    <row r="25" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -2562,12 +2557,12 @@
         <v>61</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="7"/>
       <c r="G25" s="40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H25" s="13">
         <v>23</v>
@@ -2576,7 +2571,7 @@
         <v>31</v>
       </c>
       <c r="J25" s="40" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>42</v>
@@ -2600,14 +2595,14 @@
         <v>61</v>
       </c>
       <c r="T25" s="45" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="U25" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W25" s="15"/>
     </row>
-    <row r="26" spans="1:23" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" s="20" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -2618,12 +2613,12 @@
         <v>61</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="32"/>
       <c r="G26" s="42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H26" s="13">
         <v>24</v>
@@ -2632,7 +2627,7 @@
         <v>31</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>24</v>
@@ -2645,7 +2640,7 @@
         <v>50</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P26" s="19" t="s">
         <v>33</v>
@@ -2666,7 +2661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -2677,12 +2672,12 @@
         <v>61</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="7"/>
       <c r="G27" s="40" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H27" s="13">
         <v>25</v>
@@ -2691,7 +2686,7 @@
         <v>31</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>42</v>
@@ -2715,14 +2710,14 @@
         <v>61</v>
       </c>
       <c r="T27" s="45" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="U27" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W27" s="15"/>
     </row>
-    <row r="28" spans="1:23" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" s="20" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -2733,12 +2728,12 @@
         <v>61</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="32"/>
       <c r="G28" s="42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H28" s="13">
         <v>26</v>
@@ -2747,7 +2742,7 @@
         <v>33</v>
       </c>
       <c r="J28" s="44" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>24</v>
@@ -2760,7 +2755,7 @@
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P28" s="19" t="s">
         <v>24</v>
@@ -2775,13 +2770,13 @@
         <v>28</v>
       </c>
       <c r="T28" s="46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U28" s="38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -2792,12 +2787,12 @@
         <v>61</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="7"/>
       <c r="G29" s="40" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H29" s="13">
         <v>27</v>
@@ -2806,7 +2801,7 @@
         <v>31</v>
       </c>
       <c r="J29" s="40" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>24</v>
@@ -2819,7 +2814,7 @@
         <v>50</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>24</v>
@@ -2841,7 +2836,7 @@
       </c>
       <c r="W29" s="15"/>
     </row>
-    <row r="30" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -2852,12 +2847,12 @@
         <v>61</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="7"/>
       <c r="G30" s="40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H30" s="13">
         <v>28</v>
@@ -2866,7 +2861,7 @@
         <v>31</v>
       </c>
       <c r="J30" s="40" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>42</v>
@@ -2890,14 +2885,14 @@
         <v>61</v>
       </c>
       <c r="T30" s="45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="U30" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W30" s="15"/>
     </row>
-    <row r="31" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
@@ -2908,14 +2903,14 @@
         <v>61</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H31" s="13">
         <v>29</v>
@@ -2924,7 +2919,7 @@
         <v>31</v>
       </c>
       <c r="J31" s="40" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>42</v>
@@ -2948,14 +2943,14 @@
         <v>61</v>
       </c>
       <c r="T31" s="45" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="U31" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W31" s="15"/>
     </row>
-    <row r="32" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
@@ -2966,12 +2961,12 @@
         <v>61</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="7"/>
       <c r="G32" s="40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H32" s="13">
         <v>30</v>
@@ -2980,7 +2975,7 @@
         <v>23</v>
       </c>
       <c r="J32" s="40" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>24</v>
@@ -3006,14 +3001,14 @@
         <v>28</v>
       </c>
       <c r="T32" s="46" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="U32" s="38" t="s">
         <v>30</v>
       </c>
       <c r="W32" s="15"/>
     </row>
-    <row r="33" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
@@ -3024,12 +3019,12 @@
         <v>61</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="7"/>
       <c r="G33" s="40" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H33" s="13">
         <v>31</v>
@@ -3038,7 +3033,7 @@
         <v>31</v>
       </c>
       <c r="J33" s="40" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>24</v>
@@ -3051,7 +3046,7 @@
         <v>44</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>24</v>
@@ -3073,7 +3068,7 @@
       </c>
       <c r="W33" s="15"/>
     </row>
-    <row r="34" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
@@ -3084,14 +3079,14 @@
         <v>61</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H34" s="13">
         <v>32</v>
@@ -3100,7 +3095,7 @@
         <v>31</v>
       </c>
       <c r="J34" s="40" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>42</v>
@@ -3124,14 +3119,14 @@
         <v>61</v>
       </c>
       <c r="T34" s="45" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="U34" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W34" s="15"/>
     </row>
-    <row r="35" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -3142,12 +3137,12 @@
         <v>61</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="7"/>
       <c r="G35" s="40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H35" s="13">
         <v>33</v>
@@ -3156,7 +3151,7 @@
         <v>31</v>
       </c>
       <c r="J35" s="40" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>42</v>
@@ -3180,14 +3175,14 @@
         <v>61</v>
       </c>
       <c r="T35" s="45" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="U35" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W35" s="15"/>
     </row>
-    <row r="36" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
@@ -3212,7 +3207,7 @@
         <v>31</v>
       </c>
       <c r="J36" s="40" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>42</v>
@@ -3231,7 +3226,7 @@
       <c r="U36" s="36"/>
       <c r="W36" s="15"/>
     </row>
-    <row r="37" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -3256,7 +3251,7 @@
         <v>31</v>
       </c>
       <c r="J37" s="40" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>24</v>
@@ -3282,14 +3277,14 @@
         <v>35</v>
       </c>
       <c r="T37" s="46" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="U37" s="38" t="s">
         <v>36</v>
       </c>
       <c r="W37" s="15"/>
     </row>
-    <row r="38" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
@@ -3314,7 +3309,7 @@
         <v>31</v>
       </c>
       <c r="J38" s="40" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>24</v>
@@ -3340,14 +3335,14 @@
         <v>35</v>
       </c>
       <c r="T38" s="46" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="U38" s="38" t="s">
         <v>36</v>
       </c>
       <c r="W38" s="15"/>
     </row>
-    <row r="39" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" s="14" customFormat="1" ht="15" hidden="1">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -3371,7 +3366,7 @@
       <c r="U39" s="37"/>
       <c r="W39" s="15"/>
     </row>
-    <row r="40" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" s="14" customFormat="1" ht="15" hidden="1">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -3395,7 +3390,7 @@
       <c r="U40" s="37"/>
       <c r="W40" s="15"/>
     </row>
-    <row r="41" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" s="14" customFormat="1" ht="15" hidden="1">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -3419,7 +3414,7 @@
       <c r="U41" s="37"/>
       <c r="W41" s="15"/>
     </row>
-    <row r="42" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" s="14" customFormat="1" ht="15" hidden="1">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -3443,7 +3438,7 @@
       <c r="U42" s="36"/>
       <c r="W42" s="15"/>
     </row>
-    <row r="43" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" s="14" customFormat="1" ht="15" hidden="1">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
@@ -3467,7 +3462,7 @@
       <c r="U43" s="36"/>
       <c r="W43" s="15"/>
     </row>
-    <row r="44" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" s="14" customFormat="1" ht="15" hidden="1">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
@@ -3491,7 +3486,7 @@
       <c r="U44" s="36"/>
       <c r="W44" s="15"/>
     </row>
-    <row r="45" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" s="14" customFormat="1" ht="15" hidden="1">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
@@ -3515,7 +3510,7 @@
       <c r="U45" s="36"/>
       <c r="W45" s="15"/>
     </row>
-    <row r="46" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" s="14" customFormat="1" ht="15" hidden="1">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
@@ -3539,7 +3534,7 @@
       <c r="U46" s="36"/>
       <c r="W46" s="15"/>
     </row>
-    <row r="47" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" s="14" customFormat="1" ht="15" hidden="1">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
@@ -3563,7 +3558,7 @@
       <c r="U47" s="36"/>
       <c r="W47" s="15"/>
     </row>
-    <row r="48" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" s="14" customFormat="1" ht="15" hidden="1">
       <c r="A48" s="2"/>
       <c r="B48" s="8"/>
       <c r="C48" s="10"/>
@@ -3587,7 +3582,7 @@
       <c r="U48" s="36"/>
       <c r="W48" s="15"/>
     </row>
-    <row r="49" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" s="14" customFormat="1" ht="15" hidden="1">
       <c r="A49" s="2"/>
       <c r="B49" s="8"/>
       <c r="C49" s="10"/>
@@ -3611,7 +3606,7 @@
       <c r="U49" s="36"/>
       <c r="W49" s="15"/>
     </row>
-    <row r="50" spans="1:23" s="14" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" s="14" customFormat="1" ht="15" hidden="1">
       <c r="A50" s="2"/>
       <c r="B50" s="8"/>
       <c r="C50" s="10"/>
@@ -3635,7 +3630,7 @@
       <c r="U50" s="36"/>
       <c r="W50" s="15"/>
     </row>
-    <row r="51" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" s="14" customFormat="1" ht="14" hidden="1">
       <c r="G51" s="21"/>
       <c r="J51" s="21"/>
       <c r="K51" s="22"/>
@@ -3646,7 +3641,7 @@
       <c r="U51" s="23"/>
       <c r="W51" s="23"/>
     </row>
-    <row r="52" spans="1:23" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" s="14" customFormat="1" ht="14" hidden="1">
       <c r="G52" s="21"/>
       <c r="J52" s="21"/>
       <c r="K52" s="22"/>
@@ -3667,15 +3662,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="21">
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -3688,6 +3674,15 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W6 W27 W29:W50 W10:W25">
@@ -3719,6 +3714,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/fuentes/contenidos/grado06/guion13/ESCALETA_MA_06_13_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion13/ESCALETA_MA_06_13_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="160">
   <si>
     <t>Asignatura</t>
   </si>
@@ -289,9 +289,6 @@
     <t>Refuerza tu aprendizaje: Las unidades de volumen</t>
   </si>
   <si>
-    <t>Convierte unidades de capacidad y voumen</t>
-  </si>
-  <si>
     <t>Opera con medidas de capacidad y volumen</t>
   </si>
   <si>
@@ -340,9 +337,6 @@
     <t>Refuerza tu aprendizaje: Las unidades de tiempo</t>
   </si>
   <si>
-    <t>Competencias: el conocimiento de las undades de medida</t>
-  </si>
-  <si>
     <t>El proceso de la medición</t>
   </si>
   <si>
@@ -509,13 +503,16 @@
   </si>
   <si>
     <t>Ejercicios de operaciones con medidas de longitud</t>
+  </si>
+  <si>
+    <t>Competencias: el conocimiento de las unidades de medida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +569,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -693,8 +706,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -859,6 +880,30 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -880,32 +925,16 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1176,7 +1205,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1188,7 +1217,7 @@
   <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="83" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0"/>
@@ -1218,96 +1247,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62" t="s">
+      <c r="N1" s="69"/>
+      <c r="O1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="62" t="s">
+      <c r="P1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="Q1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="U1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="60"/>
+      <c r="W1" s="68"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="65"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="59"/>
-      <c r="W2" s="60"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="67"/>
+      <c r="W2" s="68"/>
     </row>
     <row r="3" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -1320,7 +1349,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="13"/>
@@ -1361,7 +1390,7 @@
         <v>62</v>
       </c>
       <c r="U3" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W3" s="15"/>
     </row>
@@ -1376,7 +1405,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="7"/>
@@ -1417,7 +1446,7 @@
         <v>64</v>
       </c>
       <c r="U4" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W4" s="15"/>
     </row>
@@ -1432,7 +1461,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="7"/>
@@ -1488,7 +1517,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>39</v>
@@ -1504,7 +1533,7 @@
         <v>31</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>24</v>
@@ -1560,7 +1589,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>24</v>
@@ -1615,7 +1644,7 @@
         <v>31</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>24</v>
@@ -1663,7 +1692,7 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H9" s="13">
         <v>7</v>
@@ -1672,7 +1701,7 @@
         <v>31</v>
       </c>
       <c r="J9" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>42</v>
@@ -1713,7 +1742,7 @@
         <v>61</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="7"/>
@@ -1754,7 +1783,7 @@
         <v>66</v>
       </c>
       <c r="U10" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W10" s="15"/>
     </row>
@@ -1769,7 +1798,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="7"/>
@@ -1783,7 +1812,7 @@
         <v>31</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>24</v>
@@ -1807,7 +1836,7 @@
         <v>35</v>
       </c>
       <c r="T11" s="46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U11" s="38" t="s">
         <v>36</v>
@@ -1825,7 +1854,7 @@
         <v>61</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="7"/>
@@ -1863,10 +1892,10 @@
         <v>61</v>
       </c>
       <c r="T12" s="45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U12" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W12" s="15"/>
     </row>
@@ -1881,7 +1910,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="7"/>
@@ -1895,7 +1924,7 @@
         <v>23</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>42</v>
@@ -1917,10 +1946,10 @@
         <v>61</v>
       </c>
       <c r="T13" s="45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U13" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W13" s="15"/>
     </row>
@@ -1935,7 +1964,7 @@
         <v>61</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="7"/>
@@ -1949,7 +1978,7 @@
         <v>31</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>24</v>
@@ -1973,7 +2002,7 @@
         <v>35</v>
       </c>
       <c r="T14" s="46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U14" s="38" t="s">
         <v>36</v>
@@ -1991,14 +2020,14 @@
         <v>61</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H15" s="13">
         <v>13</v>
@@ -2029,10 +2058,10 @@
         <v>61</v>
       </c>
       <c r="T15" s="45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U15" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W15" s="15"/>
     </row>
@@ -2047,7 +2076,7 @@
         <v>61</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="7"/>
@@ -2088,7 +2117,7 @@
         <v>78</v>
       </c>
       <c r="U16" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W16" s="15"/>
     </row>
@@ -2103,12 +2132,12 @@
         <v>61</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="7"/>
       <c r="G17" s="41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H17" s="13">
         <v>15</v>
@@ -2141,10 +2170,10 @@
         <v>61</v>
       </c>
       <c r="T17" s="45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U17" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W17" s="15"/>
     </row>
@@ -2159,12 +2188,12 @@
         <v>61</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="7"/>
       <c r="G18" s="41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H18" s="13">
         <v>16</v>
@@ -2195,10 +2224,10 @@
         <v>61</v>
       </c>
       <c r="T18" s="45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U18" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W18" s="15"/>
     </row>
@@ -2213,7 +2242,7 @@
         <v>61</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>39</v>
@@ -2229,7 +2258,7 @@
         <v>31</v>
       </c>
       <c r="J19" s="40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>42</v>
@@ -2253,10 +2282,10 @@
         <v>61</v>
       </c>
       <c r="T19" s="45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U19" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W19" s="15"/>
     </row>
@@ -2271,7 +2300,7 @@
         <v>61</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="7"/>
@@ -2285,7 +2314,7 @@
         <v>31</v>
       </c>
       <c r="J20" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>24</v>
@@ -2329,7 +2358,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" s="27" t="s">
         <v>39</v>
@@ -2345,7 +2374,7 @@
         <v>31</v>
       </c>
       <c r="J21" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>42</v>
@@ -2369,10 +2398,10 @@
         <v>61</v>
       </c>
       <c r="T21" s="45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U21" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W21" s="15"/>
     </row>
@@ -2387,12 +2416,12 @@
         <v>61</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="7"/>
       <c r="G22" s="40" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="H22" s="13">
         <v>20</v>
@@ -2401,7 +2430,7 @@
         <v>31</v>
       </c>
       <c r="J22" s="40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>42</v>
@@ -2425,10 +2454,10 @@
         <v>61</v>
       </c>
       <c r="T22" s="45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U22" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W22" s="15"/>
     </row>
@@ -2443,12 +2472,12 @@
         <v>61</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="7"/>
       <c r="G23" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H23" s="13">
         <v>21</v>
@@ -2457,7 +2486,7 @@
         <v>31</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>42</v>
@@ -2481,10 +2510,10 @@
         <v>61</v>
       </c>
       <c r="T23" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U23" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W23" s="15"/>
     </row>
@@ -2499,14 +2528,14 @@
         <v>61</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H24" s="13">
         <v>22</v>
@@ -2515,7 +2544,7 @@
         <v>31</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>42</v>
@@ -2539,10 +2568,10 @@
         <v>61</v>
       </c>
       <c r="T24" s="45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="U24" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W24" s="15"/>
     </row>
@@ -2557,12 +2586,12 @@
         <v>61</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="7"/>
       <c r="G25" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H25" s="13">
         <v>23</v>
@@ -2571,7 +2600,7 @@
         <v>31</v>
       </c>
       <c r="J25" s="40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>42</v>
@@ -2595,10 +2624,10 @@
         <v>61</v>
       </c>
       <c r="T25" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U25" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W25" s="15"/>
     </row>
@@ -2613,12 +2642,12 @@
         <v>61</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="32"/>
       <c r="G26" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H26" s="13">
         <v>24</v>
@@ -2627,7 +2656,7 @@
         <v>31</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>24</v>
@@ -2640,7 +2669,7 @@
         <v>50</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P26" s="19" t="s">
         <v>33</v>
@@ -2672,12 +2701,12 @@
         <v>61</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="7"/>
       <c r="G27" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" s="13">
         <v>25</v>
@@ -2686,7 +2715,7 @@
         <v>31</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>42</v>
@@ -2710,10 +2739,10 @@
         <v>61</v>
       </c>
       <c r="T27" s="45" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U27" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W27" s="15"/>
     </row>
@@ -2728,12 +2757,12 @@
         <v>61</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="32"/>
       <c r="G28" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H28" s="13">
         <v>26</v>
@@ -2742,7 +2771,7 @@
         <v>33</v>
       </c>
       <c r="J28" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>24</v>
@@ -2755,7 +2784,7 @@
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P28" s="19" t="s">
         <v>24</v>
@@ -2770,7 +2799,7 @@
         <v>28</v>
       </c>
       <c r="T28" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U28" s="38" t="s">
         <v>30</v>
@@ -2787,12 +2816,12 @@
         <v>61</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="7"/>
       <c r="G29" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H29" s="13">
         <v>27</v>
@@ -2801,7 +2830,7 @@
         <v>31</v>
       </c>
       <c r="J29" s="40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>24</v>
@@ -2814,7 +2843,7 @@
         <v>50</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>24</v>
@@ -2847,12 +2876,12 @@
         <v>61</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="7"/>
       <c r="G30" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" s="13">
         <v>28</v>
@@ -2861,7 +2890,7 @@
         <v>31</v>
       </c>
       <c r="J30" s="40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>42</v>
@@ -2885,10 +2914,10 @@
         <v>61</v>
       </c>
       <c r="T30" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U30" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W30" s="15"/>
     </row>
@@ -2903,14 +2932,14 @@
         <v>61</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H31" s="13">
         <v>29</v>
@@ -2919,7 +2948,7 @@
         <v>31</v>
       </c>
       <c r="J31" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>42</v>
@@ -2943,10 +2972,10 @@
         <v>61</v>
       </c>
       <c r="T31" s="45" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U31" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W31" s="15"/>
     </row>
@@ -2961,12 +2990,12 @@
         <v>61</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="7"/>
       <c r="G32" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H32" s="13">
         <v>30</v>
@@ -2975,7 +3004,7 @@
         <v>23</v>
       </c>
       <c r="J32" s="40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>24</v>
@@ -3001,7 +3030,7 @@
         <v>28</v>
       </c>
       <c r="T32" s="46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U32" s="38" t="s">
         <v>30</v>
@@ -3019,12 +3048,12 @@
         <v>61</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="7"/>
       <c r="G33" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H33" s="13">
         <v>31</v>
@@ -3033,7 +3062,7 @@
         <v>31</v>
       </c>
       <c r="J33" s="40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>24</v>
@@ -3046,7 +3075,7 @@
         <v>44</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>24</v>
@@ -3079,14 +3108,14 @@
         <v>61</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H34" s="13">
         <v>32</v>
@@ -3095,7 +3124,7 @@
         <v>31</v>
       </c>
       <c r="J34" s="40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>42</v>
@@ -3119,10 +3148,10 @@
         <v>61</v>
       </c>
       <c r="T34" s="45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U34" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W34" s="15"/>
     </row>
@@ -3137,12 +3166,12 @@
         <v>61</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="7"/>
       <c r="G35" s="40" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="H35" s="13">
         <v>33</v>
@@ -3151,7 +3180,7 @@
         <v>31</v>
       </c>
       <c r="J35" s="40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>42</v>
@@ -3175,10 +3204,10 @@
         <v>61</v>
       </c>
       <c r="T35" s="45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U35" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W35" s="15"/>
     </row>
@@ -3207,7 +3236,7 @@
         <v>31</v>
       </c>
       <c r="J36" s="40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>42</v>
@@ -3251,7 +3280,7 @@
         <v>31</v>
       </c>
       <c r="J37" s="40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>24</v>
@@ -3277,7 +3306,7 @@
         <v>35</v>
       </c>
       <c r="T37" s="46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U37" s="38" t="s">
         <v>36</v>
@@ -3309,7 +3338,7 @@
         <v>31</v>
       </c>
       <c r="J38" s="40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>24</v>
@@ -3335,7 +3364,7 @@
         <v>35</v>
       </c>
       <c r="T38" s="46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U38" s="38" t="s">
         <v>36</v>
@@ -3662,6 +3691,15 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="21">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -3674,15 +3712,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W6 W27 W29:W50 W10:W25">
@@ -3714,6 +3743,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/fuentes/contenidos/grado06/guion13/ESCALETA_MA_06_13_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion13/ESCALETA_MA_06_13_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="161">
   <si>
     <t>Asignatura</t>
   </si>
@@ -289,6 +289,9 @@
     <t>Refuerza tu aprendizaje: Las unidades de volumen</t>
   </si>
   <si>
+    <t>Convierte unidades de capacidad y voumen</t>
+  </si>
+  <si>
     <t>Opera con medidas de capacidad y volumen</t>
   </si>
   <si>
@@ -337,6 +340,9 @@
     <t>Refuerza tu aprendizaje: Las unidades de tiempo</t>
   </si>
   <si>
+    <t>Competencias: el conocimiento de las undades de medida</t>
+  </si>
+  <si>
     <t>El proceso de la medición</t>
   </si>
   <si>
@@ -503,16 +509,13 @@
   </si>
   <si>
     <t>Ejercicios de operaciones con medidas de longitud</t>
-  </si>
-  <si>
-    <t>Competencias: el conocimiento de las unidades de medida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,22 +572,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -706,16 +693,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -880,6 +859,27 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -904,37 +904,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1205,7 +1176,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1217,7 +1188,7 @@
   <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="83" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0"/>
@@ -1247,96 +1218,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="70" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="P1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="72" t="s">
+      <c r="S1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="T1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="U1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="68"/>
+      <c r="W1" s="60"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="58"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="65"/>
       <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="67"/>
-      <c r="W2" s="68"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="59"/>
+      <c r="W2" s="60"/>
     </row>
     <row r="3" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -1349,7 +1320,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="13"/>
@@ -1390,7 +1361,7 @@
         <v>62</v>
       </c>
       <c r="U3" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W3" s="15"/>
     </row>
@@ -1405,7 +1376,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="7"/>
@@ -1446,7 +1417,7 @@
         <v>64</v>
       </c>
       <c r="U4" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W4" s="15"/>
     </row>
@@ -1461,7 +1432,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="7"/>
@@ -1517,7 +1488,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>39</v>
@@ -1533,7 +1504,7 @@
         <v>31</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>24</v>
@@ -1589,7 +1560,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>24</v>
@@ -1644,7 +1615,7 @@
         <v>31</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>24</v>
@@ -1692,7 +1663,7 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="41" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H9" s="13">
         <v>7</v>
@@ -1701,7 +1672,7 @@
         <v>31</v>
       </c>
       <c r="J9" s="42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>42</v>
@@ -1742,7 +1713,7 @@
         <v>61</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="7"/>
@@ -1783,7 +1754,7 @@
         <v>66</v>
       </c>
       <c r="U10" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W10" s="15"/>
     </row>
@@ -1798,7 +1769,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="7"/>
@@ -1812,7 +1783,7 @@
         <v>31</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>24</v>
@@ -1836,7 +1807,7 @@
         <v>35</v>
       </c>
       <c r="T11" s="46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="U11" s="38" t="s">
         <v>36</v>
@@ -1854,7 +1825,7 @@
         <v>61</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="7"/>
@@ -1892,10 +1863,10 @@
         <v>61</v>
       </c>
       <c r="T12" s="45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="U12" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W12" s="15"/>
     </row>
@@ -1910,7 +1881,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="7"/>
@@ -1924,7 +1895,7 @@
         <v>23</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>42</v>
@@ -1946,10 +1917,10 @@
         <v>61</v>
       </c>
       <c r="T13" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="U13" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="U13" s="38" t="s">
-        <v>137</v>
       </c>
       <c r="W13" s="15"/>
     </row>
@@ -1964,7 +1935,7 @@
         <v>61</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="7"/>
@@ -1978,7 +1949,7 @@
         <v>31</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>24</v>
@@ -2002,7 +1973,7 @@
         <v>35</v>
       </c>
       <c r="T14" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U14" s="38" t="s">
         <v>36</v>
@@ -2020,14 +1991,14 @@
         <v>61</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H15" s="13">
         <v>13</v>
@@ -2058,10 +2029,10 @@
         <v>61</v>
       </c>
       <c r="T15" s="45" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="U15" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W15" s="15"/>
     </row>
@@ -2076,7 +2047,7 @@
         <v>61</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="7"/>
@@ -2117,7 +2088,7 @@
         <v>78</v>
       </c>
       <c r="U16" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W16" s="15"/>
     </row>
@@ -2132,12 +2103,12 @@
         <v>61</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="7"/>
       <c r="G17" s="41" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H17" s="13">
         <v>15</v>
@@ -2170,10 +2141,10 @@
         <v>61</v>
       </c>
       <c r="T17" s="45" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="U17" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W17" s="15"/>
     </row>
@@ -2188,12 +2159,12 @@
         <v>61</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="7"/>
       <c r="G18" s="41" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H18" s="13">
         <v>16</v>
@@ -2224,10 +2195,10 @@
         <v>61</v>
       </c>
       <c r="T18" s="45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="U18" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W18" s="15"/>
     </row>
@@ -2242,7 +2213,7 @@
         <v>61</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>39</v>
@@ -2258,7 +2229,7 @@
         <v>31</v>
       </c>
       <c r="J19" s="40" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>42</v>
@@ -2282,10 +2253,10 @@
         <v>61</v>
       </c>
       <c r="T19" s="45" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="U19" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W19" s="15"/>
     </row>
@@ -2300,7 +2271,7 @@
         <v>61</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="7"/>
@@ -2314,7 +2285,7 @@
         <v>31</v>
       </c>
       <c r="J20" s="40" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>24</v>
@@ -2358,7 +2329,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E21" s="27" t="s">
         <v>39</v>
@@ -2374,7 +2345,7 @@
         <v>31</v>
       </c>
       <c r="J21" s="40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>42</v>
@@ -2398,10 +2369,10 @@
         <v>61</v>
       </c>
       <c r="T21" s="45" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="U21" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W21" s="15"/>
     </row>
@@ -2416,12 +2387,12 @@
         <v>61</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="7"/>
       <c r="G22" s="40" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="H22" s="13">
         <v>20</v>
@@ -2430,7 +2401,7 @@
         <v>31</v>
       </c>
       <c r="J22" s="40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>42</v>
@@ -2454,10 +2425,10 @@
         <v>61</v>
       </c>
       <c r="T22" s="45" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="U22" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W22" s="15"/>
     </row>
@@ -2472,12 +2443,12 @@
         <v>61</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="7"/>
       <c r="G23" s="40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" s="13">
         <v>21</v>
@@ -2486,7 +2457,7 @@
         <v>31</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>42</v>
@@ -2510,10 +2481,10 @@
         <v>61</v>
       </c>
       <c r="T23" s="45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U23" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W23" s="15"/>
     </row>
@@ -2528,14 +2499,14 @@
         <v>61</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H24" s="13">
         <v>22</v>
@@ -2544,7 +2515,7 @@
         <v>31</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>42</v>
@@ -2568,10 +2539,10 @@
         <v>61</v>
       </c>
       <c r="T24" s="45" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="U24" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W24" s="15"/>
     </row>
@@ -2586,12 +2557,12 @@
         <v>61</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="7"/>
       <c r="G25" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" s="13">
         <v>23</v>
@@ -2600,7 +2571,7 @@
         <v>31</v>
       </c>
       <c r="J25" s="40" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>42</v>
@@ -2624,10 +2595,10 @@
         <v>61</v>
       </c>
       <c r="T25" s="45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U25" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W25" s="15"/>
     </row>
@@ -2642,12 +2613,12 @@
         <v>61</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="32"/>
       <c r="G26" s="42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H26" s="13">
         <v>24</v>
@@ -2656,7 +2627,7 @@
         <v>31</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>24</v>
@@ -2669,7 +2640,7 @@
         <v>50</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P26" s="19" t="s">
         <v>33</v>
@@ -2701,12 +2672,12 @@
         <v>61</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="7"/>
       <c r="G27" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" s="13">
         <v>25</v>
@@ -2715,7 +2686,7 @@
         <v>31</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>42</v>
@@ -2739,10 +2710,10 @@
         <v>61</v>
       </c>
       <c r="T27" s="45" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="U27" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W27" s="15"/>
     </row>
@@ -2757,12 +2728,12 @@
         <v>61</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="32"/>
       <c r="G28" s="42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H28" s="13">
         <v>26</v>
@@ -2771,7 +2742,7 @@
         <v>33</v>
       </c>
       <c r="J28" s="44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>24</v>
@@ -2784,7 +2755,7 @@
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P28" s="19" t="s">
         <v>24</v>
@@ -2799,7 +2770,7 @@
         <v>28</v>
       </c>
       <c r="T28" s="46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U28" s="38" t="s">
         <v>30</v>
@@ -2816,12 +2787,12 @@
         <v>61</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="7"/>
       <c r="G29" s="40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H29" s="13">
         <v>27</v>
@@ -2830,7 +2801,7 @@
         <v>31</v>
       </c>
       <c r="J29" s="40" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>24</v>
@@ -2843,7 +2814,7 @@
         <v>50</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>24</v>
@@ -2876,12 +2847,12 @@
         <v>61</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="7"/>
       <c r="G30" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H30" s="13">
         <v>28</v>
@@ -2890,7 +2861,7 @@
         <v>31</v>
       </c>
       <c r="J30" s="40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>42</v>
@@ -2914,10 +2885,10 @@
         <v>61</v>
       </c>
       <c r="T30" s="45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U30" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W30" s="15"/>
     </row>
@@ -2932,14 +2903,14 @@
         <v>61</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" s="13">
         <v>29</v>
@@ -2948,7 +2919,7 @@
         <v>31</v>
       </c>
       <c r="J31" s="40" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>42</v>
@@ -2972,10 +2943,10 @@
         <v>61</v>
       </c>
       <c r="T31" s="45" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="U31" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W31" s="15"/>
     </row>
@@ -2990,12 +2961,12 @@
         <v>61</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="7"/>
       <c r="G32" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H32" s="13">
         <v>30</v>
@@ -3004,7 +2975,7 @@
         <v>23</v>
       </c>
       <c r="J32" s="40" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>24</v>
@@ -3030,7 +3001,7 @@
         <v>28</v>
       </c>
       <c r="T32" s="46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="U32" s="38" t="s">
         <v>30</v>
@@ -3048,12 +3019,12 @@
         <v>61</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="7"/>
       <c r="G33" s="40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H33" s="13">
         <v>31</v>
@@ -3062,7 +3033,7 @@
         <v>31</v>
       </c>
       <c r="J33" s="40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>24</v>
@@ -3075,7 +3046,7 @@
         <v>44</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>24</v>
@@ -3108,14 +3079,14 @@
         <v>61</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H34" s="13">
         <v>32</v>
@@ -3124,7 +3095,7 @@
         <v>31</v>
       </c>
       <c r="J34" s="40" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>42</v>
@@ -3148,10 +3119,10 @@
         <v>61</v>
       </c>
       <c r="T34" s="45" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="U34" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W34" s="15"/>
     </row>
@@ -3166,12 +3137,12 @@
         <v>61</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="7"/>
       <c r="G35" s="40" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="H35" s="13">
         <v>33</v>
@@ -3180,7 +3151,7 @@
         <v>31</v>
       </c>
       <c r="J35" s="40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>42</v>
@@ -3204,10 +3175,10 @@
         <v>61</v>
       </c>
       <c r="T35" s="45" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="U35" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W35" s="15"/>
     </row>
@@ -3236,7 +3207,7 @@
         <v>31</v>
       </c>
       <c r="J36" s="40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>42</v>
@@ -3280,7 +3251,7 @@
         <v>31</v>
       </c>
       <c r="J37" s="40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>24</v>
@@ -3306,7 +3277,7 @@
         <v>35</v>
       </c>
       <c r="T37" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U37" s="38" t="s">
         <v>36</v>
@@ -3338,7 +3309,7 @@
         <v>31</v>
       </c>
       <c r="J38" s="40" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>24</v>
@@ -3364,7 +3335,7 @@
         <v>35</v>
       </c>
       <c r="T38" s="46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="U38" s="38" t="s">
         <v>36</v>
@@ -3691,15 +3662,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="21">
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -3712,6 +3674,15 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W6 W27 W29:W50 W10:W25">
@@ -3743,7 +3714,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/fuentes/contenidos/grado06/guion13/ESCALETA_MA_06_13_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion13/ESCALETA_MA_06_13_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="161">
   <si>
     <t>Asignatura</t>
   </si>
@@ -515,9 +515,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -696,107 +703,107 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,105 +812,106 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,7 +1184,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1187,8 +1195,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="83" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0"/>
@@ -1218,96 +1226,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62" t="s">
+      <c r="N1" s="69"/>
+      <c r="O1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="62" t="s">
+      <c r="P1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="Q1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="U1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="60"/>
+      <c r="W1" s="68"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="65"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="59"/>
-      <c r="W2" s="60"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="67"/>
+      <c r="W2" s="68"/>
     </row>
     <row r="3" spans="1:23" s="14" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -1573,7 +1581,9 @@
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="18"/>
+      <c r="P7" s="73" t="s">
+        <v>24</v>
+      </c>
       <c r="Q7" s="38">
         <v>6</v>
       </c>
@@ -1796,7 +1806,9 @@
         <v>59</v>
       </c>
       <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="Q11" s="38">
         <v>6</v>
       </c>
@@ -1962,7 +1974,9 @@
         <v>37</v>
       </c>
       <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="Q14" s="38">
         <v>6</v>
       </c>
@@ -2698,7 +2712,7 @@
       <c r="N27" s="5"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Q27" s="38">
         <v>7</v>
@@ -3662,6 +3676,15 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="21">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -3674,15 +3697,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W6 W27 W29:W50 W10:W25">
